--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Met</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H2">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I2">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J2">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N2">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O2">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P2">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q2">
-        <v>2605.39645975381</v>
+        <v>3.867557283217778</v>
       </c>
       <c r="R2">
-        <v>2605.39645975381</v>
+        <v>34.80801554896</v>
       </c>
       <c r="S2">
-        <v>0.02289180518152171</v>
+        <v>3.11703652657979E-05</v>
       </c>
       <c r="T2">
-        <v>0.02289180518152171</v>
+        <v>3.11703652657979E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H3">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I3">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J3">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N3">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O3">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P3">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q3">
-        <v>3820.415407316014</v>
+        <v>3.308231774961778</v>
       </c>
       <c r="R3">
-        <v>3820.415407316014</v>
+        <v>29.774085974656</v>
       </c>
       <c r="S3">
-        <v>0.03356733094855977</v>
+        <v>2.666251208661697E-05</v>
       </c>
       <c r="T3">
-        <v>0.03356733094855977</v>
+        <v>2.666251208661698E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H4">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I4">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J4">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N4">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O4">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P4">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q4">
-        <v>9642.665860106594</v>
+        <v>12.57842998256</v>
       </c>
       <c r="R4">
-        <v>9642.665860106594</v>
+        <v>113.20586984304</v>
       </c>
       <c r="S4">
-        <v>0.08472339304588167</v>
+        <v>0.0001013751648173279</v>
       </c>
       <c r="T4">
-        <v>0.08472339304588167</v>
+        <v>0.0001013751648173279</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>2698.76667926335</v>
+        <v>2.335690666666667</v>
       </c>
       <c r="H5">
-        <v>2698.76667926335</v>
+        <v>7.007072</v>
       </c>
       <c r="I5">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287776</v>
       </c>
       <c r="J5">
-        <v>0.9973384715134949</v>
+        <v>0.0008591106367287777</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>36.1061609160698</v>
+        <v>37.180664</v>
       </c>
       <c r="N5">
-        <v>36.1061609160698</v>
+        <v>111.541992</v>
       </c>
       <c r="O5">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="P5">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="Q5">
-        <v>97442.10399640985</v>
+        <v>86.84252988526934</v>
       </c>
       <c r="R5">
-        <v>97442.10399640985</v>
+        <v>781.5827689674239</v>
       </c>
       <c r="S5">
-        <v>0.8561559423375318</v>
+        <v>0.0006999025945590349</v>
       </c>
       <c r="T5">
-        <v>0.8561559423375318</v>
+        <v>0.0006999025945590349</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H6">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I6">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J6">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N6">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O6">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P6">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q6">
-        <v>0.6240266940389678</v>
+        <v>4482.28265854781</v>
       </c>
       <c r="R6">
-        <v>0.6240266940389678</v>
+        <v>40340.54392693028</v>
       </c>
       <c r="S6">
-        <v>5.482888200960764E-06</v>
+        <v>0.03612471062749084</v>
       </c>
       <c r="T6">
-        <v>5.482888200960764E-06</v>
+        <v>0.03612471062749085</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H7">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I7">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J7">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N7">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O7">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P7">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q7">
-        <v>0.9150397006021199</v>
+        <v>3834.055666017408</v>
       </c>
       <c r="R7">
-        <v>0.9150397006021199</v>
+        <v>34506.50099415668</v>
       </c>
       <c r="S7">
-        <v>8.039816927332822E-06</v>
+        <v>0.03090036082406364</v>
       </c>
       <c r="T7">
-        <v>8.039816927332822E-06</v>
+        <v>0.03090036082406365</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H8">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I8">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J8">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N8">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O8">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P8">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q8">
-        <v>2.309545204100464</v>
+        <v>14577.69709765713</v>
       </c>
       <c r="R8">
-        <v>2.309545204100464</v>
+        <v>131199.2738789142</v>
       </c>
       <c r="S8">
-        <v>2.029236612810221E-05</v>
+        <v>0.1174881482014105</v>
       </c>
       <c r="T8">
-        <v>2.029236612810221E-05</v>
+        <v>0.1174881482014105</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.646390088747709</v>
+        <v>2706.934895666667</v>
       </c>
       <c r="H9">
-        <v>0.646390088747709</v>
+        <v>8120.804687</v>
       </c>
       <c r="I9">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318718</v>
       </c>
       <c r="J9">
-        <v>0.0002388756716416405</v>
+        <v>0.9956611956318719</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>36.1061609160698</v>
+        <v>37.180664</v>
       </c>
       <c r="N9">
-        <v>36.1061609160698</v>
+        <v>111.541992</v>
       </c>
       <c r="O9">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="P9">
-        <v>0.8584407067324759</v>
+        <v>0.8146827249445348</v>
       </c>
       <c r="Q9">
-        <v>23.33866455887742</v>
+        <v>100645.6368256574</v>
       </c>
       <c r="R9">
-        <v>23.33866455887742</v>
+        <v>905810.7314309165</v>
       </c>
       <c r="S9">
-        <v>0.0002050606003852447</v>
+        <v>0.8111479759789069</v>
       </c>
       <c r="T9">
-        <v>0.0002050606003852447</v>
+        <v>0.811147975978907</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1018,61 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.55562266865624</v>
+        <v>1.085526333333333</v>
       </c>
       <c r="H10">
-        <v>6.55562266865624</v>
+        <v>3.256579</v>
       </c>
       <c r="I10">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="J10">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.965402633644852</v>
+        <v>1.655851666666667</v>
       </c>
       <c r="N10">
-        <v>0.965402633644852</v>
+        <v>4.967555</v>
       </c>
       <c r="O10">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="P10">
-        <v>0.02295289496531967</v>
+        <v>0.03628213169899143</v>
       </c>
       <c r="Q10">
-        <v>6.328815389502627</v>
+        <v>1.797470588260556</v>
       </c>
       <c r="R10">
-        <v>6.328815389502627</v>
+        <v>16.177235294345</v>
       </c>
       <c r="S10">
-        <v>5.560689559699505E-05</v>
+        <v>1.448661537185958E-05</v>
       </c>
       <c r="T10">
-        <v>5.560689559699505E-05</v>
+        <v>1.448661537185958E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,61 +1080,61 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.55562266865624</v>
+        <v>1.085526333333333</v>
       </c>
       <c r="H11">
-        <v>6.55562266865624</v>
+        <v>3.256579</v>
       </c>
       <c r="I11">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="J11">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.41561530186034</v>
+        <v>1.416382666666667</v>
       </c>
       <c r="N11">
-        <v>1.41561530186034</v>
+        <v>4.249148</v>
       </c>
       <c r="O11">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="P11">
-        <v>0.03365690977268751</v>
+        <v>0.03103501568568562</v>
       </c>
       <c r="Q11">
-        <v>9.28023976297229</v>
+        <v>1.537520682743555</v>
       </c>
       <c r="R11">
-        <v>9.28023976297229</v>
+        <v>13.837686144692</v>
       </c>
       <c r="S11">
-        <v>8.153900720040398E-05</v>
+        <v>1.239156340173514E-05</v>
       </c>
       <c r="T11">
-        <v>8.153900720040398E-05</v>
+        <v>1.239156340173514E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.55562266865624</v>
+        <v>1.085526333333333</v>
       </c>
       <c r="H12">
-        <v>6.55562266865624</v>
+        <v>3.256579</v>
       </c>
       <c r="I12">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="J12">
-        <v>0.002422652814863373</v>
+        <v>0.0003992768531916849</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.57298981575489</v>
+        <v>5.385314999999999</v>
       </c>
       <c r="N12">
-        <v>3.57298981575489</v>
+        <v>16.155945</v>
       </c>
       <c r="O12">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="P12">
-        <v>0.08494948852951702</v>
+        <v>0.1180001276707882</v>
       </c>
       <c r="Q12">
-        <v>23.42317303104064</v>
+        <v>5.845901245795</v>
       </c>
       <c r="R12">
-        <v>23.42317303104064</v>
+        <v>52.613111212155</v>
       </c>
       <c r="S12">
-        <v>0.0002058031175072382</v>
+        <v>4.711471965260936E-05</v>
       </c>
       <c r="T12">
-        <v>0.0002058031175072382</v>
+        <v>4.711471965260937E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.085526333333333</v>
+      </c>
+      <c r="H13">
+        <v>3.256579</v>
+      </c>
+      <c r="I13">
+        <v>0.0003992768531916849</v>
+      </c>
+      <c r="J13">
+        <v>0.0003992768531916849</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>37.180664</v>
+      </c>
+      <c r="N13">
+        <v>111.541992</v>
+      </c>
+      <c r="O13">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="P13">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="Q13">
+        <v>40.36058986281867</v>
+      </c>
+      <c r="R13">
+        <v>363.245308765368</v>
+      </c>
+      <c r="S13">
+        <v>0.0003252839547654808</v>
+      </c>
+      <c r="T13">
+        <v>0.0003252839547654809</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H14">
+        <v>25.124474</v>
+      </c>
+      <c r="I14">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J14">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.655851666666667</v>
+      </c>
+      <c r="N14">
+        <v>4.967555</v>
+      </c>
+      <c r="O14">
+        <v>0.03628213169899143</v>
+      </c>
+      <c r="P14">
+        <v>0.03628213169899143</v>
+      </c>
+      <c r="Q14">
+        <v>13.86746738234111</v>
+      </c>
+      <c r="R14">
+        <v>124.80720644107</v>
+      </c>
+      <c r="S14">
+        <v>0.0001117640908629228</v>
+      </c>
+      <c r="T14">
+        <v>0.0001117640908629228</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H15">
+        <v>25.124474</v>
+      </c>
+      <c r="I15">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J15">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.416382666666667</v>
+      </c>
+      <c r="N15">
+        <v>4.249148</v>
+      </c>
+      <c r="O15">
+        <v>0.03103501568568562</v>
+      </c>
+      <c r="P15">
+        <v>0.03103501568568562</v>
+      </c>
+      <c r="Q15">
+        <v>11.86195649423911</v>
+      </c>
+      <c r="R15">
+        <v>106.757608448152</v>
+      </c>
+      <c r="S15">
+        <v>9.560078613362241E-05</v>
+      </c>
+      <c r="T15">
+        <v>9.560078613362243E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>6.55562266865624</v>
-      </c>
-      <c r="H13">
-        <v>6.55562266865624</v>
-      </c>
-      <c r="I13">
-        <v>0.002422652814863373</v>
-      </c>
-      <c r="J13">
-        <v>0.002422652814863373</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>36.1061609160698</v>
-      </c>
-      <c r="N13">
-        <v>36.1061609160698</v>
-      </c>
-      <c r="O13">
-        <v>0.8584407067324759</v>
-      </c>
-      <c r="P13">
-        <v>0.8584407067324759</v>
-      </c>
-      <c r="Q13">
-        <v>236.6983669795371</v>
-      </c>
-      <c r="R13">
-        <v>236.6983669795371</v>
-      </c>
-      <c r="S13">
-        <v>0.002079703794558736</v>
-      </c>
-      <c r="T13">
-        <v>0.002079703794558736</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H16">
+        <v>25.124474</v>
+      </c>
+      <c r="I16">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J16">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>5.385314999999999</v>
+      </c>
+      <c r="N16">
+        <v>16.155945</v>
+      </c>
+      <c r="O16">
+        <v>0.1180001276707882</v>
+      </c>
+      <c r="P16">
+        <v>0.1180001276707882</v>
+      </c>
+      <c r="Q16">
+        <v>45.10106889977</v>
+      </c>
+      <c r="R16">
+        <v>405.90962009793</v>
+      </c>
+      <c r="S16">
+        <v>0.000363489584907743</v>
+      </c>
+      <c r="T16">
+        <v>0.0003634895849077431</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8.374824666666667</v>
+      </c>
+      <c r="H17">
+        <v>25.124474</v>
+      </c>
+      <c r="I17">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="J17">
+        <v>0.003080416878207562</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>37.180664</v>
+      </c>
+      <c r="N17">
+        <v>111.541992</v>
+      </c>
+      <c r="O17">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="P17">
+        <v>0.8146827249445348</v>
+      </c>
+      <c r="Q17">
+        <v>311.3815419902454</v>
+      </c>
+      <c r="R17">
+        <v>2802.433877912208</v>
+      </c>
+      <c r="S17">
+        <v>0.002509562416303274</v>
+      </c>
+      <c r="T17">
+        <v>0.002509562416303274</v>
       </c>
     </row>
   </sheetData>
